--- a/biology/Zoologie/Aurore_de_Sicile/Aurore_de_Sicile.xlsx
+++ b/biology/Zoologie/Aurore_de_Sicile/Aurore_de_Sicile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthocharis damone
 L’Aurore de Sicile (Anthocharis   damone)  est un insecte lépidoptère  de la famille des Pieridae, de la sous-famille des Pierinae et du genre Anthocharis.
@@ -512,14 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Anthocharis   damone (Boisduval, 1836)
-Noms vernaculaires
-L'Aurore de Sicile se nomme Eastern Orange Tip en anglais.
-Sous-espèces
-Anthocharis damone eunomia Freyer, 1851.
-Anthocharis damone fickleri Seyer, 1985.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis   damone (Boisduval, 1836)
+</t>
         </is>
       </c>
     </row>
@@ -544,10 +554,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aurore de Sicile se nomme Eastern Orange Tip en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anthocharis damone eunomia Freyer, 1851.
+Anthocharis damone fickleri Seyer, 1985.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Aurore de Sicile  présente le même dimorphisme sexuel que les autres Aurore: les ailes antérieures du mâle jaunes marquées d'une tache noire ont un apex orange bordé d'une petite bande foncée alors que la femelle est blanche avec ces mêmes tache noire et bande à l'apex. Les ailes postérieures sont marbrées de vert et ces marques sont intenses sur le revers.
 			Anthocharis damone ♂   MHNT
@@ -556,77 +642,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aurore_de_Sicile</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aurore_de_Sicile</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les œufs donnent des chenilles vertes puis des chrysalides blanchâtres.
-Période de vol et hivernation
-Les adultes volent d'avril à juin, en une seule génération annuelle.
-Elle hiverne dans sa chrysalide, au stade nymphal.
-Plantes hôtes
-La plante-hôte de la chenille est isatis tinctoria et Aethionema saxatilis[1]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Aurore_de_Sicile</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aurore_de_Sicile</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Aurore de Sicile est présente dans le sud de l'Italie,en Sicile, Grèce, Iran.
-Biotope
-Elle est inféodée aux  pentes caillouteuses.
-Protection
-Pas de statut de protection particulier
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -648,10 +663,227 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs donnent des chenilles vertes puis des chrysalides blanchâtres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes volent d'avril à juin, en une seule génération annuelle.
+Elle hiverne dans sa chrysalide, au stade nymphal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante-hôte de la chenille est isatis tinctoria et Aethionema saxatilis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aurore de Sicile est présente dans le sud de l'Italie,en Sicile, Grèce, Iran.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est inféodée aux  pentes caillouteuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_de_Sicile</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
